--- a/database/umm.xlsx
+++ b/database/umm.xlsx
@@ -1067,7 +1067,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1426,7 +1426,11 @@
       <c r="CY2" t="inlineStr"/>
       <c r="CZ2" t="inlineStr"/>
       <c r="DA2" t="inlineStr"/>
-      <c r="DB2" t="inlineStr"/>
+      <c r="DB2" t="inlineStr">
+        <is>
+          <t>https://www.inaturalist.org/taxa/122811-Pimenta-dioica</t>
+        </is>
+      </c>
       <c r="DC2" t="inlineStr">
         <is>
           <t>https://ipni.org/n/196799-2</t>
@@ -12067,10 +12071,10 @@
         </is>
       </c>
       <c r="AU31" t="n">
-        <v>-33.7923617</v>
+        <v>0.3153639</v>
       </c>
       <c r="AV31" t="n">
-        <v>19.8931564</v>
+        <v>32.5772025</v>
       </c>
       <c r="AW31" t="inlineStr">
         <is>
